--- a/Lab 4/04_Strain_Data_Collection_Tables.xlsx
+++ b/Lab 4/04_Strain_Data_Collection_Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\LaTeX\MEC E 301\Lab 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC68BB3-F35F-47D3-9BB4-7C1D6B23FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E149F2-BF75-43DC-9353-4DD50F0C572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{536FADCD-359F-B041-A8CF-9623A1D8DBE3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
@@ -1176,7 +1176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5">
+    <row r="9" spans="1:16" ht="47.25">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
